--- a/my_contract/tools/out.xlsx
+++ b/my_contract/tools/out.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="用户主体名称" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="用户主体名称2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="用户主体名称" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -424,77 +425,173 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>用户主体名称</t>
+          <t>用户主体名称2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Helen.Wang@dominos.com.cn</t>
+          <t>Donney.miao@dominos.com.cn</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hiram.Deng@dominos.com.cn</t>
+          <t>Gary.Jiang@dominos.com.cn</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nicole.Zhang@dominos.com.cn</t>
+          <t>louis.tang@dominos.com.cn</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Qingfang.Xu@dominos.com.cn</t>
+          <t>Yan.Yan@dominos.com.cn</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Crystal.Chen@dominos.com.cn</t>
+          <t>Ying.Xiong@dominos.com.cn</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jianwei.Xu@dominos.com.cn</t>
+          <t>Yoyo.Xiao@dominos.com.cn</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Luna.Ge@dominos.com.cn</t>
+          <t>Linda.JH.Lin@dominos.com.cn</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Andy.Li@dominos.com.cn</t>
+          <t>Bennie.Song@dominos.com.cn</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ava.Cao@dominos.com.cn</t>
+          <t>Luke.Yuan@dominos.com.cn</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chester.Qian@dominos.com.cn</t>
+          <t>Barbara.qin@dominos.com.cn</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>用户主体名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Kimi.Xu@dominos.com.cn</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Miao.Shui@dominos.com.cn</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Feifei.Ye@dominos.com.cn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Yoyo.Xiao@dominos.com.cn</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Donney.miao@dominos.com.cn</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Poker.Zhao@dominos.com.cn</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Michael.Xu@dominos.com.cn</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Haley.Chen@dominos.com.cn</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cassie.Liu@dominos.com.cn</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lesley.Ni@dominos.com.cn</t>
         </is>
       </c>
     </row>
